--- a/output/DiagnosticReport/observation-otherdiag-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-otherdiag-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="478">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-obs-02:If present, a performer shall at least have a reference or an identifier with at least a system and a value {performer.exists() implies (performer.reference.exists() or performer.identifier.where(system.count() + value.count() &gt;1).exists())}inv-dh-obs-03:The observation shall at least have a value, a data absent reason or a member observation {value.exists() or dataAbsentReason.exists() or hasMember.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -456,7 +456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/imagingstudy-diag-1)
 </t>
   </si>
   <si>
@@ -478,131 +478,7 @@
     <t>.outboundRelationship[typeCode=FLFS].target</t>
   </si>
   <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="procedure"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Diagnostic examination / panel name</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
+    <t>Observation.partOf.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -617,7 +493,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Observation.code.extension</t>
+    <t>Observation.partOf.extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
@@ -632,466 +508,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-ident-1)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what the observation is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>Observation.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence
-</t>
-  </si>
-  <si>
-    <t>dateTime
-Period</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
-  </si>
-  <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Observation.issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/organization-ident-1)
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
-    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
-  </si>
-  <si>
-    <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
-  </si>
-  <si>
-    <t>value.nullFlavor</t>
-  </si>
-  <si>
-    <t>Observation.interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal Flag
-</t>
-  </si>
-  <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
-  </si>
-  <si>
-    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
-  </si>
-  <si>
-    <t>&lt; 260245000 |Findings values|</t>
-  </si>
-  <si>
-    <t>OBX-8</t>
-  </si>
-  <si>
-    <t>interpretationCode</t>
-  </si>
-  <si>
-    <t>363713009 |Has interpretation|</t>
-  </si>
-  <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments about the observation</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.</t>
-  </si>
-  <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide free text additional information.</t>
-  </si>
-  <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>Observation.bodySite</t>
-  </si>
-  <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
-  </si>
-  <si>
-    <t>&lt; 123037004 |Body structure|</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.method</t>
-  </si>
-  <si>
-    <t>How it was done</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
-  </si>
-  <si>
-    <t>OBX-17</t>
-  </si>
-  <si>
-    <t>methodCode</t>
-  </si>
-  <si>
-    <t>Observation.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-specimen)
-</t>
-  </si>
-  <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
-    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
-  </si>
-  <si>
-    <t>&lt; 123038009 |Specimen|</t>
-  </si>
-  <si>
-    <t>SPM segment</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SPC].specimen</t>
-  </si>
-  <si>
-    <t>704319004 |Inherent in|</t>
-  </si>
-  <si>
-    <t>Observation.specimen.id</t>
-  </si>
-  <si>
-    <t>Observation.specimen.extension</t>
-  </si>
-  <si>
-    <t>Observation.specimen.reference</t>
+    <t>Observation.partOf.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -1110,7 +527,7 @@
 </t>
   </si>
   <si>
-    <t>Observation.specimen.type</t>
+    <t>Observation.partOf.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -1123,6 +540,9 @@
     <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
@@ -1132,7 +552,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Observation.specimen.identifier</t>
+    <t>Observation.partOf.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1153,19 +573,606 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>Observation.partOf.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/observationstatus-result-available-1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Diagnostic examination / panel name</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>snomedImagingProcedure</t>
+  </si>
+  <si>
+    <t>Imaging Procedure (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for observation</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date/Time this version was made available</t>
+  </si>
+  <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
+</t>
+  </si>
+  <si>
+    <t>Who is responsible for the observation</t>
+  </si>
+  <si>
+    <t>Who was responsible for asserting the observed value as "true".</t>
+  </si>
+  <si>
+    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+  </si>
+  <si>
+    <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
+  </si>
+  <si>
+    <t>value.nullFlavor</t>
+  </si>
+  <si>
+    <t>Observation.interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Flag
+</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
+    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
+  </si>
+  <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
+    <t>&lt; 260245000 |Findings values|</t>
+  </si>
+  <si>
+    <t>OBX-8</t>
+  </si>
+  <si>
+    <t>interpretationCode</t>
+  </si>
+  <si>
+    <t>363713009 |Has interpretation|</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the observation</t>
+  </si>
+  <si>
+    <t>Comments about the observation or the results.</t>
+  </si>
+  <si>
+    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>&lt; 123037004 |Body structure|</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>718497002 |Inherent location|</t>
+  </si>
+  <si>
+    <t>Observation.method</t>
+  </si>
+  <si>
+    <t>How it was done</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+  </si>
+  <si>
+    <t>OBX-17</t>
+  </si>
+  <si>
+    <t>methodCode</t>
+  </si>
+  <si>
+    <t>Observation.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-specimen)
+</t>
+  </si>
+  <si>
+    <t>Specimen used for this observation</t>
+  </si>
+  <si>
+    <t>The specimen that was used when this observation was made.</t>
+  </si>
+  <si>
+    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
+  </si>
+  <si>
+    <t>&lt; 123038009 |Specimen|</t>
+  </si>
+  <si>
+    <t>SPM segment</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SPC].specimen</t>
+  </si>
+  <si>
+    <t>704319004 |Inherent in|</t>
+  </si>
+  <si>
+    <t>Observation.specimen.id</t>
+  </si>
+  <si>
+    <t>Observation.specimen.extension</t>
+  </si>
+  <si>
+    <t>Observation.specimen.reference</t>
+  </si>
+  <si>
+    <t>Observation.specimen.type</t>
+  </si>
+  <si>
+    <t>Observation.specimen.identifier</t>
+  </si>
+  <si>
     <t>Observation.specimen.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Observation.device</t>
@@ -1656,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO69"/>
+  <dimension ref="A1:AO75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1689,7 +1696,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.2890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3233,7 +3240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>137</v>
       </c>
@@ -3249,7 +3256,7 @@
         <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>45</v>
@@ -3350,7 +3357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>146</v>
       </c>
@@ -3360,22 +3367,22 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>147</v>
@@ -3383,12 +3390,8 @@
       <c r="L15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3412,13 +3415,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3436,10 +3439,10 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>55</v>
@@ -3448,44 +3451,44 @@
         <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>45</v>
@@ -3494,20 +3497,18 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>45</v>
@@ -3531,31 +3532,31 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3567,7 +3568,7 @@
         <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>45</v>
@@ -3579,22 +3580,22 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3604,7 +3605,7 @@
         <v>55</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>45</v>
@@ -3613,20 +3614,18 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3650,13 +3649,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3674,42 +3673,42 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>184</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3729,18 +3728,20 @@
         <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3765,13 +3766,13 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3789,7 +3790,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3801,7 +3802,7 @@
         <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>45</v>
@@ -3813,7 +3814,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3824,18 +3825,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3844,19 +3845,19 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3894,31 +3895,31 @@
         <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>45</v>
@@ -3930,7 +3931,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3941,7 +3942,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3952,7 +3953,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3964,20 +3965,18 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -4013,23 +4012,25 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -4044,10 +4045,10 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4056,46 +4057,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4120,11 +4119,11 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4142,13 +4141,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4157,27 +4156,27 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4185,34 +4184,34 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4237,13 +4236,13 @@
         <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4261,13 +4260,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4282,13 +4281,13 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4296,11 +4295,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4319,19 +4318,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4356,13 +4355,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4380,10 +4379,10 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>55</v>
@@ -4395,27 +4394,27 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4426,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4435,20 +4434,18 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4497,19 +4494,19 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>45</v>
@@ -4518,13 +4515,13 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4532,18 +4529,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4552,23 +4549,21 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4604,68 +4599,68 @@
         <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
@@ -4674,19 +4669,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4723,25 +4718,23 @@
         <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4750,19 +4743,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4770,9 +4763,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4793,18 +4788,20 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4828,13 +4825,11 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4852,13 +4847,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4873,21 +4868,21 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4898,10 +4893,10 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>45</v>
@@ -4910,17 +4905,19 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>263</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4969,13 +4966,13 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -4984,19 +4981,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -5004,7 +5001,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5012,7 +5009,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>55</v>
@@ -5027,19 +5024,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5088,7 +5085,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5097,33 +5094,33 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5134,32 +5131,30 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5183,13 +5178,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5207,16 +5202,16 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5228,56 +5223,56 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5302,13 +5297,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5326,13 +5321,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5341,38 +5336,38 @@
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>56</v>
@@ -5381,22 +5376,22 @@
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5445,13 +5440,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5460,27 +5455,27 @@
         <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5494,25 +5489,25 @@
         <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5538,13 +5533,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5562,7 +5557,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5580,24 +5575,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>321</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5608,7 +5603,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>56</v>
@@ -5617,22 +5612,20 @@
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5657,13 +5650,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5681,13 +5674,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5696,19 +5689,19 @@
         <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5716,7 +5709,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5736,21 +5729,23 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5798,7 +5793,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5807,7 +5802,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5816,24 +5811,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5847,7 +5842,7 @@
         <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
@@ -5856,16 +5851,20 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>186</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5889,13 +5888,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5913,7 +5912,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5922,10 +5921,10 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
@@ -5934,10 +5933,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5946,13 +5945,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5962,7 +5961,7 @@
         <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -5971,18 +5970,20 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6006,31 +6007,31 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6042,30 +6043,30 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>189</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6073,33 +6074,35 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6147,16 +6150,16 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>67</v>
@@ -6168,10 +6171,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>98</v>
+        <v>335</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6180,9 +6183,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6196,25 +6199,25 @@
         <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6240,13 +6243,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6264,7 +6267,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6282,24 +6285,24 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6313,27 +6316,29 @@
         <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6357,13 +6362,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6381,7 +6386,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6402,10 +6407,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6414,9 +6419,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6430,25 +6435,25 @@
         <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>57</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6498,7 +6503,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6516,24 +6521,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>98</v>
+        <v>362</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6556,17 +6561,15 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>367</v>
+        <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>368</v>
+        <v>147</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6615,7 +6618,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>149</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6627,34 +6630,34 @@
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>373</v>
+        <v>150</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>374</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6664,7 +6667,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>45</v>
@@ -6673,20 +6676,18 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>377</v>
+        <v>152</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>378</v>
+        <v>153</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6722,19 +6723,19 @@
         <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>375</v>
+        <v>155</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6746,7 +6747,7 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>381</v>
+        <v>106</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6755,10 +6756,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>383</v>
+        <v>150</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6769,7 +6770,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6777,7 +6778,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>55</v>
@@ -6789,18 +6790,20 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6849,7 +6852,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6858,10 +6861,10 @@
         <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6873,7 +6876,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6884,18 +6887,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6904,19 +6907,19 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6942,13 +6945,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6966,19 +6969,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6990,7 +6993,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7001,43 +7004,41 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>388</v>
+        <v>171</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>389</v>
+        <v>172</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7085,19 +7086,19 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>390</v>
+        <v>174</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -7109,7 +7110,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7118,9 +7119,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7134,24 +7135,26 @@
         <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>392</v>
+        <v>57</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>393</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7200,7 +7203,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>391</v>
+        <v>180</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7209,7 +7212,7 @@
         <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>67</v>
@@ -7221,10 +7224,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>397</v>
+        <v>98</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7233,9 +7236,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7249,7 +7252,7 @@
         <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>45</v>
@@ -7258,15 +7261,17 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7315,7 +7320,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7324,7 +7329,7 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>67</v>
@@ -7333,24 +7338,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7361,7 +7366,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>56</v>
@@ -7373,19 +7378,19 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7410,13 +7415,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7434,31 +7439,31 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>385</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>302</v>
+        <v>387</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7467,9 +7472,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7480,10 +7485,10 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>45</v>
@@ -7492,20 +7497,16 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>412</v>
+        <v>147</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7529,13 +7530,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7553,31 +7554,31 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>411</v>
+        <v>149</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7586,23 +7587,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>45</v>
@@ -7611,18 +7612,18 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>420</v>
+        <v>152</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7670,19 +7671,19 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>418</v>
+        <v>155</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7694,7 +7695,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>423</v>
+        <v>150</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7703,41 +7704,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7785,19 +7790,19 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
@@ -7806,10 +7811,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>427</v>
+        <v>98</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7820,7 +7825,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7831,7 +7836,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>56</v>
@@ -7840,20 +7845,18 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7902,16 +7905,16 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>67</v>
@@ -7923,10 +7926,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7935,9 +7938,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7951,7 +7954,7 @@
         <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>45</v>
@@ -7960,13 +7963,13 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>57</v>
+        <v>396</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>403</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>404</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8017,7 +8020,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>188</v>
+        <v>402</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8026,10 +8029,10 @@
         <v>55</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
@@ -8038,10 +8041,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>189</v>
+        <v>405</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8050,23 +8053,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
@@ -8075,18 +8078,20 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>191</v>
+        <v>407</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>192</v>
+        <v>408</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8110,55 +8115,55 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>194</v>
+        <v>406</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>189</v>
+        <v>326</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8167,9 +8172,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8177,33 +8182,35 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>343</v>
+        <v>416</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>344</v>
+        <v>417</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8227,13 +8234,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>45</v>
+        <v>420</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8251,16 +8258,16 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>67</v>
@@ -8269,13 +8276,13 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>98</v>
+        <v>326</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8284,9 +8291,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8300,27 +8307,27 @@
         <v>55</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>69</v>
+        <v>423</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>349</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8344,13 +8351,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8368,7 +8375,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>354</v>
+        <v>422</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8392,7 +8399,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>98</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8401,9 +8408,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8417,26 +8424,24 @@
         <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8485,7 +8490,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8506,10 +8511,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8518,9 +8523,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8531,10 +8536,10 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>45</v>
@@ -8543,16 +8548,16 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>57</v>
+        <v>433</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>362</v>
+        <v>434</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>363</v>
+        <v>435</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>364</v>
+        <v>436</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8602,13 +8607,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8623,10 +8628,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>98</v>
+        <v>438</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8637,7 +8642,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8648,7 +8653,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8657,20 +8662,18 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>442</v>
+        <v>57</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>443</v>
+        <v>147</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8719,19 +8722,19 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>441</v>
+        <v>149</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8740,10 +8743,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>446</v>
+        <v>150</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8754,18 +8757,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8774,23 +8777,21 @@
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>448</v>
+        <v>152</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>449</v>
+        <v>153</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8826,19 +8827,19 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8850,7 +8851,7 @@
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>45</v>
@@ -8859,10 +8860,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>452</v>
+        <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>453</v>
+        <v>150</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8873,7 +8874,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8881,7 +8882,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>55</v>
@@ -8893,18 +8894,20 @@
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8953,7 +8956,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8962,10 +8965,10 @@
         <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
@@ -8977,7 +8980,7 @@
         <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8988,18 +8991,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
@@ -9008,19 +9011,19 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9046,13 +9049,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9070,19 +9073,19 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
@@ -9094,7 +9097,7 @@
         <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9105,43 +9108,41 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>388</v>
+        <v>171</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>389</v>
+        <v>172</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9189,19 +9190,19 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>390</v>
+        <v>174</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9213,7 +9214,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9224,7 +9225,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9232,7 +9233,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>55</v>
@@ -9247,20 +9248,18 @@
         <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>458</v>
+        <v>177</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>459</v>
+        <v>178</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9284,13 +9283,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9308,10 +9307,10 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>457</v>
+        <v>180</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>55</v>
@@ -9326,16 +9325,16 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>461</v>
+        <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>45</v>
@@ -9343,7 +9342,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9354,7 +9353,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9366,20 +9365,18 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>272</v>
+        <v>446</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>274</v>
+        <v>448</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9427,13 +9424,13 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
@@ -9445,24 +9442,24 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>465</v>
+        <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>279</v>
+        <v>437</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9473,7 +9470,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9482,22 +9479,22 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>286</v>
+        <v>455</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9522,13 +9519,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9546,16 +9543,16 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>67</v>
@@ -9567,10 +9564,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>98</v>
+        <v>456</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>291</v>
+        <v>457</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9581,18 +9578,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9604,20 +9601,16 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9641,13 +9634,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9665,46 +9658,46 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>470</v>
+        <v>149</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9723,20 +9716,18 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>472</v>
+        <v>152</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>473</v>
+        <v>153</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9784,7 +9775,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>471</v>
+        <v>155</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9796,29 +9787,743 @@
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AN69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO69" t="s" s="2">
+      <c r="N75" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO69">
+  <autoFilter ref="A1:AO75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9828,7 +10533,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-otherdiag-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-otherdiag-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="455">
   <si>
     <t>Path</t>
   </si>
@@ -699,77 +699,6 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1663,7 +1592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO75"/>
+  <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1673,7 +1602,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -4412,7 +4341,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>218</v>
       </c>
@@ -4422,31 +4351,35 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4494,7 +4427,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4506,22 +4439,22 @@
         <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4529,11 +4462,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4549,19 +4482,19 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4599,19 +4532,19 @@
         <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4623,7 +4556,7 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>45</v>
@@ -4632,13 +4565,13 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4646,18 +4579,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4669,19 +4602,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4718,23 +4651,25 @@
         <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4743,43 +4678,41 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
@@ -4788,19 +4721,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4825,11 +4758,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4847,13 +4782,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4862,19 +4797,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4882,7 +4817,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4905,20 +4840,18 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4966,7 +4899,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4987,13 +4920,13 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -5001,7 +4934,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5009,10 +4942,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>56</v>
@@ -5024,19 +4957,17 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5085,13 +5016,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -5100,27 +5031,27 @@
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5131,10 +5062,10 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -5143,18 +5074,20 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5202,16 +5135,16 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5220,28 +5153,28 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5251,28 +5184,28 @@
         <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5297,13 +5230,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5321,7 +5254,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5330,25 +5263,25 @@
         <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5356,18 +5289,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>56</v>
@@ -5376,22 +5309,22 @@
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5416,13 +5349,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5440,13 +5373,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5455,27 +5388,27 @@
         <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5486,30 +5419,32 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5557,13 +5492,13 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
@@ -5578,13 +5513,13 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5592,7 +5527,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5603,7 +5538,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>56</v>
@@ -5612,21 +5547,21 @@
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5650,13 +5585,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5674,13 +5609,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5689,27 +5624,27 @@
         <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5729,22 +5664,22 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>297</v>
+        <v>194</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5769,13 +5704,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5793,7 +5728,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5802,7 +5737,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5811,24 +5746,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5851,20 +5786,18 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5888,13 +5821,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5912,7 +5845,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5921,7 +5854,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5930,38 +5863,38 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>98</v>
+        <v>338</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -5970,20 +5903,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>318</v>
+        <v>147</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6007,13 +5936,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6031,46 +5960,46 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>316</v>
+        <v>149</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6080,7 +6009,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>45</v>
@@ -6089,20 +6018,18 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>329</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>152</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>153</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6138,19 +6065,19 @@
         <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>328</v>
+        <v>155</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6162,7 +6089,7 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6171,10 +6098,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>335</v>
+        <v>150</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6183,9 +6110,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6193,31 +6120,31 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>158</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>339</v>
+        <v>159</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6243,13 +6170,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6267,7 +6194,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>160</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6276,7 +6203,7 @@
         <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>67</v>
@@ -6285,24 +6212,24 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6316,29 +6243,27 @@
         <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>164</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6362,13 +6287,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>351</v>
+        <v>167</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6386,7 +6311,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>346</v>
+        <v>169</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6407,10 +6332,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>354</v>
+        <v>98</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6419,9 +6344,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6435,25 +6360,25 @@
         <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>356</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>357</v>
+        <v>171</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>172</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>359</v>
+        <v>173</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6503,7 +6428,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>355</v>
+        <v>174</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6521,24 +6446,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>362</v>
+        <v>175</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6558,18 +6483,20 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6618,7 +6545,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6630,7 +6557,7 @@
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
@@ -6642,7 +6569,7 @@
         <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6653,18 +6580,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6676,16 +6603,16 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>116</v>
+        <v>351</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6723,54 +6650,54 @@
         <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>155</v>
+        <v>347</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>150</v>
+        <v>354</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>45</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6778,33 +6705,35 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>357</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>157</v>
+        <v>358</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>158</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6852,19 +6781,19 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>160</v>
+        <v>356</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>362</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6873,10 +6802,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6887,7 +6816,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6907,20 +6836,18 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6945,13 +6872,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6969,7 +6896,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6981,7 +6908,7 @@
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6993,7 +6920,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7004,18 +6931,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -7024,19 +6951,19 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7086,19 +7013,19 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -7110,7 +7037,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7121,41 +7048,43 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>178</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7203,19 +7132,19 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>180</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7236,9 +7165,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7252,7 +7181,7 @@
         <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>45</v>
@@ -7261,17 +7190,15 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7320,7 +7247,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7329,7 +7256,7 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>67</v>
@@ -7338,19 +7265,19 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
@@ -7366,7 +7293,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>56</v>
@@ -7378,20 +7305,16 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>384</v>
-      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7445,13 +7368,13 @@
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>385</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7460,10 +7383,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7472,9 +7395,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7488,7 +7411,7 @@
         <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>45</v>
@@ -7497,16 +7420,20 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7530,13 +7457,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7554,7 +7481,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>149</v>
+        <v>383</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7566,19 +7493,19 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7587,13 +7514,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7603,7 +7530,7 @@
         <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>45</v>
@@ -7612,18 +7539,20 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>152</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>153</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7647,13 +7576,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7671,7 +7600,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>155</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7683,19 +7612,19 @@
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7704,44 +7633,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>117</v>
+        <v>403</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7790,19 +7717,19 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
@@ -7814,7 +7741,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7825,7 +7752,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7848,13 +7775,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>396</v>
+        <v>57</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7905,7 +7832,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7914,7 +7841,7 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>67</v>
@@ -7926,10 +7853,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7940,7 +7867,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7951,7 +7878,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>56</v>
@@ -7960,18 +7887,20 @@
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8020,16 +7949,16 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>67</v>
@@ -8041,10 +7970,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8053,9 +7982,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8069,7 +7998,7 @@
         <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
@@ -8078,20 +8007,16 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>407</v>
+        <v>147</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8115,13 +8040,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>411</v>
+        <v>45</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8139,7 +8064,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>406</v>
+        <v>149</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8151,19 +8076,19 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8172,13 +8097,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8188,7 +8113,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>45</v>
@@ -8197,20 +8122,18 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>416</v>
+        <v>152</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>153</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8234,31 +8157,31 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>155</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8270,19 +8193,19 @@
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8291,9 +8214,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8301,33 +8224,33 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>423</v>
+        <v>57</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>157</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8375,7 +8298,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>160</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8384,7 +8307,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8399,7 +8322,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>427</v>
+        <v>98</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8408,9 +8331,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8424,24 +8347,26 @@
         <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8466,13 +8391,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8490,7 +8415,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>428</v>
+        <v>169</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8511,10 +8436,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>431</v>
+        <v>98</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8523,9 +8448,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8536,10 +8461,10 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>45</v>
@@ -8548,16 +8473,16 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>433</v>
+        <v>120</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>434</v>
+        <v>171</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>435</v>
+        <v>172</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>436</v>
+        <v>173</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8607,13 +8532,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>432</v>
+        <v>174</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8628,10 +8553,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>437</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>438</v>
+        <v>175</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8642,7 +8567,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8662,18 +8587,20 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8722,7 +8649,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8734,7 +8661,7 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8746,7 +8673,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8757,11 +8684,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8777,19 +8704,19 @@
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>100</v>
+        <v>423</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>152</v>
+        <v>424</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>153</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>116</v>
+        <v>426</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8827,19 +8754,19 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8851,7 +8778,7 @@
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>45</v>
@@ -8860,10 +8787,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>150</v>
+        <v>427</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8874,7 +8801,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8882,10 +8809,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8897,18 +8824,20 @@
         <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>57</v>
+        <v>357</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>157</v>
+        <v>429</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>158</v>
+        <v>430</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8956,16 +8885,16 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>160</v>
+        <v>428</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>67</v>
@@ -8977,10 +8906,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>98</v>
+        <v>434</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8991,7 +8920,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9011,20 +8940,18 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9049,13 +8976,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9073,7 +9000,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9085,7 +9012,7 @@
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
@@ -9097,7 +9024,7 @@
         <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9108,18 +9035,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -9128,19 +9055,19 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9190,19 +9117,19 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9214,7 +9141,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9225,41 +9152,43 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>177</v>
+        <v>369</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>178</v>
+        <v>370</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9307,19 +9236,19 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>180</v>
+        <v>371</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
@@ -9342,7 +9271,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9350,10 +9279,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9365,18 +9294,20 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>446</v>
+        <v>194</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9400,13 +9331,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9424,13 +9355,13 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
@@ -9442,16 +9373,16 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>437</v>
+        <v>214</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>450</v>
+        <v>215</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>45</v>
@@ -9459,7 +9390,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9470,7 +9401,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9482,19 +9413,19 @@
         <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>380</v>
+        <v>274</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>453</v>
+        <v>276</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>455</v>
+        <v>278</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9543,13 +9474,13 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
@@ -9561,24 +9492,24 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>456</v>
+        <v>281</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>457</v>
+        <v>282</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9601,16 +9532,20 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>147</v>
+        <v>448</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9634,13 +9569,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9658,7 +9593,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>149</v>
+        <v>447</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9667,10 +9602,10 @@
         <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -9679,10 +9614,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>150</v>
+        <v>292</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9693,11 +9628,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>113</v>
+        <v>294</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9716,18 +9651,20 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>153</v>
+        <v>296</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9751,13 +9688,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -9775,7 +9712,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>155</v>
+        <v>451</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9787,34 +9724,34 @@
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>45</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9827,25 +9764,25 @@
         <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>392</v>
+        <v>453</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>116</v>
+        <v>360</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>117</v>
+        <v>361</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9894,7 +9831,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9906,7 +9843,7 @@
         <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>45</v>
@@ -9915,615 +9852,20 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO75" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO75">
+  <autoFilter ref="A1:AO70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10533,7 +9875,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-otherdiag-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-otherdiag-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="478">
   <si>
     <t>Path</t>
   </si>
@@ -699,6 +699,77 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>snomedImagingProcedure</t>
+  </si>
+  <si>
+    <t>Imaging Procedure (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1592,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO70"/>
+  <dimension ref="A1:AO75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1602,7 +1673,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -4341,7 +4412,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>218</v>
       </c>
@@ -4351,35 +4422,31 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4427,7 +4494,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4439,22 +4506,22 @@
         <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4462,11 +4529,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4482,19 +4549,19 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4532,19 +4599,19 @@
         <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4556,7 +4623,7 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>45</v>
@@ -4565,13 +4632,13 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4579,18 +4646,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4602,19 +4669,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4651,25 +4718,23 @@
         <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4678,41 +4743,43 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C27" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
@@ -4721,19 +4788,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4758,13 +4825,11 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4782,13 +4847,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4797,19 +4862,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4817,7 +4882,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4840,18 +4905,20 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4899,7 +4966,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4920,13 +4987,13 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4934,7 +5001,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4942,10 +5009,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>56</v>
@@ -4957,17 +5024,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5016,13 +5085,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -5031,27 +5100,27 @@
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5062,10 +5131,10 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -5074,20 +5143,18 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5135,16 +5202,16 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5153,28 +5220,28 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5184,28 +5251,28 @@
         <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5230,13 +5297,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5254,7 +5321,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5263,25 +5330,25 @@
         <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5289,18 +5356,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>56</v>
@@ -5309,22 +5376,22 @@
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5349,13 +5416,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5373,13 +5440,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5388,27 +5455,27 @@
         <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5419,32 +5486,30 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5492,13 +5557,13 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
@@ -5513,13 +5578,13 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5527,7 +5592,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5538,7 +5603,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>56</v>
@@ -5547,21 +5612,21 @@
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5585,13 +5650,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5609,13 +5674,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5624,27 +5689,27 @@
         <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5664,22 +5729,22 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5704,13 +5769,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5728,7 +5793,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5737,7 +5802,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5746,24 +5811,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5786,18 +5851,20 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5821,13 +5888,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5845,7 +5912,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5854,7 +5921,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5863,38 +5930,38 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>98</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -5903,16 +5970,20 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>147</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5936,13 +6007,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5960,46 +6031,46 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>149</v>
+        <v>316</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6009,7 +6080,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>45</v>
@@ -6018,18 +6089,20 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>152</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>153</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6065,19 +6138,19 @@
         <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6089,7 +6162,7 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6098,10 +6171,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>150</v>
+        <v>335</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6110,9 +6183,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6120,31 +6193,31 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>157</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>158</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>159</v>
+        <v>339</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6170,13 +6243,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6194,7 +6267,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>160</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6203,7 +6276,7 @@
         <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>67</v>
@@ -6212,24 +6285,24 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6243,27 +6316,29 @@
         <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>163</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>164</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6287,13 +6362,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>167</v>
+        <v>351</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>168</v>
+        <v>352</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6311,7 +6386,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>169</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6332,10 +6407,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>98</v>
+        <v>354</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6344,9 +6419,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6360,25 +6435,25 @@
         <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>120</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>172</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6428,7 +6503,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6446,24 +6521,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>175</v>
+        <v>362</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6483,20 +6558,18 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6545,7 +6618,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6557,7 +6630,7 @@
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
@@ -6569,7 +6642,7 @@
         <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6580,18 +6653,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6603,16 +6676,16 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>348</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>349</v>
+        <v>152</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>153</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
+        <v>116</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6650,54 +6723,54 @@
         <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>347</v>
+        <v>155</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>150</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6705,35 +6778,33 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>357</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>157</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6781,19 +6852,19 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>160</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>362</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6802,10 +6873,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>364</v>
+        <v>98</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6816,7 +6887,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6836,18 +6907,20 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6872,13 +6945,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6896,7 +6969,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6908,7 +6981,7 @@
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6920,7 +6993,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6931,18 +7004,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -6951,19 +7024,19 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7013,19 +7086,19 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -7037,7 +7110,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7048,43 +7121,41 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>178</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7132,19 +7203,19 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>180</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7165,9 +7236,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7181,7 +7252,7 @@
         <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>45</v>
@@ -7190,15 +7261,17 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7247,7 +7320,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7256,7 +7329,7 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>376</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>67</v>
@@ -7265,19 +7338,19 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="49">
@@ -7293,7 +7366,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>56</v>
@@ -7305,16 +7378,20 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7368,13 +7445,13 @@
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>376</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>385</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7383,10 +7460,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7395,9 +7472,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7411,7 +7488,7 @@
         <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>45</v>
@@ -7420,20 +7497,16 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>384</v>
+        <v>147</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7457,13 +7530,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7481,7 +7554,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>383</v>
+        <v>149</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7493,19 +7566,19 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>303</v>
+        <v>150</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7514,13 +7587,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7530,7 +7603,7 @@
         <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>45</v>
@@ -7539,20 +7612,18 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>152</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>153</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7576,13 +7647,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7600,7 +7671,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7612,63 +7683,65 @@
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>403</v>
+        <v>117</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7717,19 +7790,19 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
@@ -7741,7 +7814,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>404</v>
+        <v>98</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7752,7 +7825,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7775,13 +7848,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>57</v>
+        <v>396</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7832,7 +7905,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7841,7 +7914,7 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>67</v>
@@ -7853,10 +7926,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7867,7 +7940,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7878,7 +7951,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>56</v>
@@ -7887,20 +7960,18 @@
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7949,16 +8020,16 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>67</v>
@@ -7970,10 +8041,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7982,9 +8053,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7998,7 +8069,7 @@
         <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
@@ -8007,16 +8078,20 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>147</v>
+        <v>407</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8040,13 +8115,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8064,7 +8139,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>149</v>
+        <v>406</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8076,19 +8151,19 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8097,13 +8172,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8113,7 +8188,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>45</v>
@@ -8122,18 +8197,20 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>152</v>
+        <v>416</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>153</v>
+        <v>417</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8157,31 +8234,31 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>45</v>
+        <v>420</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>155</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8193,19 +8270,19 @@
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8214,9 +8291,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8224,33 +8301,33 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>57</v>
+        <v>423</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>157</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8298,7 +8375,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>160</v>
+        <v>422</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8307,7 +8384,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8322,7 +8399,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>98</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8331,9 +8408,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8347,26 +8424,24 @@
         <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>163</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8391,13 +8466,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8415,7 +8490,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>169</v>
+        <v>428</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8436,10 +8511,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>98</v>
+        <v>431</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8448,9 +8523,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8461,10 +8536,10 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>45</v>
@@ -8473,16 +8548,16 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>120</v>
+        <v>433</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>172</v>
+        <v>435</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>173</v>
+        <v>436</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8532,13 +8607,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>174</v>
+        <v>432</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8553,10 +8628,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>175</v>
+        <v>438</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8567,7 +8642,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8587,20 +8662,18 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8649,7 +8722,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8661,7 +8734,7 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8673,7 +8746,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8684,11 +8757,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8704,19 +8777,19 @@
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>423</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>424</v>
+        <v>152</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>153</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>116</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8754,19 +8827,19 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>422</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8778,7 +8851,7 @@
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>45</v>
@@ -8787,10 +8860,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>427</v>
+        <v>150</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8801,7 +8874,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8809,10 +8882,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8824,20 +8897,18 @@
         <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>357</v>
+        <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>429</v>
+        <v>157</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>430</v>
+        <v>158</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8885,16 +8956,16 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>428</v>
+        <v>160</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>67</v>
@@ -8906,10 +8977,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>434</v>
+        <v>98</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8920,7 +8991,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8940,18 +9011,20 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -8976,13 +9049,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9000,7 +9073,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9012,7 +9085,7 @@
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
@@ -9024,7 +9097,7 @@
         <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9035,18 +9108,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -9055,19 +9128,19 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9117,19 +9190,19 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9141,7 +9214,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9152,43 +9225,41 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>369</v>
+        <v>177</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>370</v>
+        <v>178</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9236,19 +9307,19 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>371</v>
+        <v>180</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
@@ -9271,7 +9342,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9279,10 +9350,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9294,20 +9365,18 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>194</v>
+        <v>446</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9331,13 +9400,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9355,13 +9424,13 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
@@ -9373,16 +9442,16 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>214</v>
+        <v>437</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>45</v>
@@ -9390,7 +9459,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9401,7 +9470,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9413,19 +9482,19 @@
         <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>274</v>
+        <v>380</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>276</v>
+        <v>453</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>278</v>
+        <v>455</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9474,13 +9543,13 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
@@ -9492,24 +9561,24 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>446</v>
+        <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>281</v>
+        <v>456</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>282</v>
+        <v>457</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9532,20 +9601,16 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>448</v>
+        <v>147</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9569,13 +9634,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9593,7 +9658,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>447</v>
+        <v>149</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9602,10 +9667,10 @@
         <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -9614,10 +9679,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>292</v>
+        <v>150</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9628,11 +9693,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9651,20 +9716,18 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9688,13 +9751,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -9712,7 +9775,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>451</v>
+        <v>155</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9724,34 +9787,34 @@
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>303</v>
+        <v>150</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9764,25 +9827,25 @@
         <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>453</v>
+        <v>392</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>360</v>
+        <v>116</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>361</v>
+        <v>117</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9831,7 +9894,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>452</v>
+        <v>394</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9843,29 +9906,624 @@
         <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO70" t="s" s="2">
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO70">
+  <autoFilter ref="A1:AO75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9875,7 +10533,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
